--- a/biology/Zoologie/Ixodidae/Ixodidae.xlsx
+++ b/biology/Zoologie/Ixodidae/Ixodidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Ixodidae sont une famille de tiques. Elle regroupe les tiques dites dures.
 Cette famille compte plus de 700 espèces dans 14 genres dont 12 actuels.
@@ -512,11 +524,13 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les tiques de cette famille sont de taille très variable, avec un capitulum antérieur bien visible et un scutum dorsal dont la présence est constante.
-Des clés dichotomiques permettent d'identifier les adultes d'Ixodidae, mais aussi leurs larves[1].
-La longueur du corps des femelles affamées de tiques ixodides ne dépasse pas 3 à 5 mm, les mâles sont plus petits; forme ovale, aplatie dans le sens dorso-abdominal, rétrécie vers le bord avant. Sur le bord avant étroit, il y a une trompe, c'est avec elle que la tique s'enfonce dans la peau de sa victime[2].
+Des clés dichotomiques permettent d'identifier les adultes d'Ixodidae, mais aussi leurs larves.
+La longueur du corps des femelles affamées de tiques ixodides ne dépasse pas 3 à 5 mm, les mâles sont plus petits; forme ovale, aplatie dans le sens dorso-abdominal, rétrécie vers le bord avant. Sur le bord avant étroit, il y a une trompe, c'est avec elle que la tique s'enfonce dans la peau de sa victime.
 </t>
         </is>
       </c>
@@ -545,9 +559,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon Guglielmone et al., 2010[3] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon Guglielmone et al., 2010 :
 Amblyomma Koch, 1844
 Anomalohimalaya Hoogstraal, Kaiser &amp; Mitchell, 1970
 Bothriocroton Keirans, King &amp; Sharrad, 1994
@@ -560,8 +576,8 @@
 Nosomma Schulze, 1919
 Rhipicentor Nuttall &amp; Warburton, 1908
 Rhipicephalus Koch, 1844
-†Cornupalpatum Poinar &amp; Brown, 2003 (Cornupalpatum burmanicum, seule espèce connue[4])
-†Compluriscutula Poinar &amp; Buckley, 2008 (Compluriscutula vetulum, seule espèce connue[4])
+†Cornupalpatum Poinar &amp; Brown, 2003 (Cornupalpatum burmanicum, seule espèce connue)
+†Compluriscutula Poinar &amp; Buckley, 2008 (Compluriscutula vetulum, seule espèce connue)
 et
 Archaeocroton Barker &amp; Burger, 2018
 Robertsicus Barker &amp; Burger, 2018</t>
@@ -592,7 +608,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>C. L. Koch, 1844 : Systematische Übersicht über die Ordnung der Zecken. Archiv Für Naturgeschichte, Berlin, vol. 10, p. 217–239 (texte intégral).</t>
         </is>
